--- a/rdqe.xlsx
+++ b/rdqe.xlsx
@@ -451,19 +451,19 @@
         <v>S723E</v>
       </c>
       <c r="B2" t="str">
-        <v>30/04/2022</v>
+        <v>2020202</v>
       </c>
       <c r="C2" t="str">
-        <v>94,69</v>
+        <v>95,62</v>
       </c>
       <c r="D2" t="str">
-        <v>82,98</v>
+        <v>88,06</v>
       </c>
       <c r="E2" t="str">
-        <v>99,84</v>
+        <v>99,92</v>
       </c>
       <c r="F2" t="str">
-        <v>99,82</v>
+        <v>99,98</v>
       </c>
       <c r="G2" t="str">
         <v>0,00</v>
@@ -478,13 +478,13 @@
         <v>0,00</v>
       </c>
       <c r="K2" t="str">
-        <v>0,05</v>
+        <v>0,10</v>
       </c>
       <c r="L2" t="str">
-        <v>11,60</v>
+        <v>-37,30</v>
       </c>
       <c r="M2" t="str">
-        <v>0,00</v>
+        <v>-0,01</v>
       </c>
     </row>
     <row r="3">
@@ -492,40 +492,40 @@
         <v>EBBL</v>
       </c>
       <c r="B3" t="str">
-        <v>30/04/2022</v>
+        <v>2020202</v>
       </c>
       <c r="C3" t="str">
-        <v>81,23</v>
+        <v>-</v>
       </c>
       <c r="D3" t="str">
-        <v>62,39</v>
+        <v>-</v>
       </c>
       <c r="E3" t="str">
-        <v>98,88</v>
+        <v>0,00</v>
       </c>
       <c r="F3" t="str">
-        <v>99,10</v>
+        <v>0,00</v>
       </c>
       <c r="G3" t="str">
-        <v>0,02</v>
+        <v>0,00</v>
       </c>
       <c r="H3" t="str">
-        <v>0,01</v>
+        <v>0,00</v>
       </c>
       <c r="I3" t="str">
-        <v>0,04</v>
+        <v>0,00</v>
       </c>
       <c r="J3" t="str">
         <v>0,00</v>
       </c>
       <c r="K3" t="str">
-        <v>0,01</v>
+        <v>0,00</v>
       </c>
       <c r="L3" t="str">
-        <v>11,50</v>
+        <v>0,00</v>
       </c>
       <c r="M3" t="str">
-        <v>-0,01</v>
+        <v>0,00</v>
       </c>
     </row>
     <row r="4">
@@ -533,40 +533,40 @@
         <v>GEEK</v>
       </c>
       <c r="B4" t="str">
-        <v>30/04/2022</v>
+        <v>2020202</v>
       </c>
       <c r="C4" t="str">
-        <v>94,77</v>
+        <v>95,28</v>
       </c>
       <c r="D4" t="str">
-        <v>74,41</v>
+        <v>78,21</v>
       </c>
       <c r="E4" t="str">
-        <v>98,87</v>
+        <v>99,83</v>
       </c>
       <c r="F4" t="str">
-        <v>98,88</v>
+        <v>99,08</v>
       </c>
       <c r="G4" t="str">
-        <v>0,01</v>
+        <v>0,00</v>
       </c>
       <c r="H4" t="str">
         <v>0,00</v>
       </c>
       <c r="I4" t="str">
-        <v>0,01</v>
+        <v>0,00</v>
       </c>
       <c r="J4" t="str">
         <v>0,00</v>
       </c>
       <c r="K4" t="str">
-        <v>0,25</v>
+        <v>1,07</v>
       </c>
       <c r="L4" t="str">
-        <v>-27,50</v>
+        <v>-51,00</v>
       </c>
       <c r="M4" t="str">
-        <v>-0,02</v>
+        <v>-0,01</v>
       </c>
     </row>
     <row r="5">
@@ -574,19 +574,19 @@
         <v>EBFS</v>
       </c>
       <c r="B5" t="str">
-        <v>30/04/2022</v>
+        <v>2020202</v>
       </c>
       <c r="C5" t="str">
-        <v>90,25</v>
+        <v>93,21</v>
       </c>
       <c r="D5" t="str">
-        <v>79,88</v>
+        <v>92,26</v>
       </c>
       <c r="E5" t="str">
-        <v>99,87</v>
+        <v>99,90</v>
       </c>
       <c r="F5" t="str">
-        <v>99,59</v>
+        <v>99,89</v>
       </c>
       <c r="G5" t="str">
         <v>0,00</v>
@@ -601,13 +601,13 @@
         <v>0,00</v>
       </c>
       <c r="K5" t="str">
-        <v>0,01</v>
+        <v>0,00</v>
       </c>
       <c r="L5" t="str">
-        <v>-13,30</v>
+        <v>-47,90</v>
       </c>
       <c r="M5" t="str">
-        <v>0,03</v>
+        <v>0,04</v>
       </c>
     </row>
     <row r="6">
@@ -615,13 +615,13 @@
         <v>EBSH</v>
       </c>
       <c r="B6" t="str">
-        <v>30/04/2022</v>
+        <v>2020202</v>
       </c>
       <c r="C6" t="str">
         <v/>
       </c>
       <c r="D6" t="str">
-        <v>68,42</v>
+        <v>82,54</v>
       </c>
       <c r="E6" t="str">
         <v/>
@@ -645,10 +645,10 @@
         <v/>
       </c>
       <c r="L6" t="str">
-        <v>-38,10</v>
+        <v>-72,10</v>
       </c>
       <c r="M6" t="str">
-        <v>0,13</v>
+        <v>0,12</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>EBBE</v>
       </c>
       <c r="B7" t="str">
-        <v>30/04/2022</v>
+        <v>2020202</v>
       </c>
       <c r="C7" t="str">
         <v/>
       </c>
       <c r="D7" t="str">
-        <v>54,67</v>
+        <v>84,07</v>
       </c>
       <c r="E7" t="str">
         <v/>
@@ -686,10 +686,10 @@
         <v/>
       </c>
       <c r="L7" t="str">
-        <v>56,60</v>
+        <v>5,80</v>
       </c>
       <c r="M7" t="str">
-        <v>0,04</v>
+        <v>0,01</v>
       </c>
     </row>
     <row r="8">
@@ -697,40 +697,43 @@
         <v>GEMB</v>
       </c>
       <c r="B8" t="str">
-        <v>30/04/2022</v>
+        <v>2020202</v>
       </c>
       <c r="C8" t="str">
-        <v>90,33</v>
+        <v/>
       </c>
       <c r="D8" t="str">
-        <v>72,25</v>
+        <v/>
       </c>
       <c r="E8" t="str">
-        <v>98,14</v>
+        <v/>
       </c>
       <c r="F8" t="str">
-        <v>94,99</v>
+        <v/>
       </c>
       <c r="G8" t="str">
-        <v>0,77</v>
+        <v/>
       </c>
       <c r="H8" t="str">
-        <v>0,54</v>
+        <v/>
       </c>
       <c r="I8" t="str">
-        <v>1,21</v>
+        <v/>
       </c>
       <c r="J8" t="str">
-        <v>0,00</v>
+        <v/>
       </c>
       <c r="K8" t="str">
-        <v>2,18</v>
+        <v/>
       </c>
       <c r="L8" t="str">
-        <v>34,10</v>
+        <v/>
       </c>
       <c r="M8" t="str">
-        <v>-0,01</v>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v>No Data</v>
       </c>
     </row>
     <row r="9">
@@ -738,7 +741,7 @@
         <v>EBEZ</v>
       </c>
       <c r="B9" t="str">
-        <v>30/04/2022</v>
+        <v>2020202</v>
       </c>
       <c r="C9" t="str">
         <v/>

--- a/rdqe.xlsx
+++ b/rdqe.xlsx
@@ -451,7 +451,7 @@
         <v>S723E</v>
       </c>
       <c r="B2" t="str">
-        <v>2020202</v>
+        <v>test</v>
       </c>
       <c r="C2" t="str">
         <v>95,62</v>
@@ -492,7 +492,7 @@
         <v>EBBL</v>
       </c>
       <c r="B3" t="str">
-        <v>2020202</v>
+        <v>test</v>
       </c>
       <c r="C3" t="str">
         <v>-</v>
@@ -533,7 +533,7 @@
         <v>GEEK</v>
       </c>
       <c r="B4" t="str">
-        <v>2020202</v>
+        <v>test</v>
       </c>
       <c r="C4" t="str">
         <v>95,28</v>
@@ -574,7 +574,7 @@
         <v>EBFS</v>
       </c>
       <c r="B5" t="str">
-        <v>2020202</v>
+        <v>test</v>
       </c>
       <c r="C5" t="str">
         <v>93,21</v>
@@ -615,7 +615,7 @@
         <v>EBSH</v>
       </c>
       <c r="B6" t="str">
-        <v>2020202</v>
+        <v>test</v>
       </c>
       <c r="C6" t="str">
         <v/>
@@ -656,7 +656,7 @@
         <v>EBBE</v>
       </c>
       <c r="B7" t="str">
-        <v>2020202</v>
+        <v>test</v>
       </c>
       <c r="C7" t="str">
         <v/>
@@ -697,7 +697,7 @@
         <v>GEMB</v>
       </c>
       <c r="B8" t="str">
-        <v>2020202</v>
+        <v>test</v>
       </c>
       <c r="C8" t="str">
         <v/>
@@ -741,7 +741,7 @@
         <v>EBEZ</v>
       </c>
       <c r="B9" t="str">
-        <v>2020202</v>
+        <v>test</v>
       </c>
       <c r="C9" t="str">
         <v/>

--- a/rdqe.xlsx
+++ b/rdqe.xlsx
@@ -451,19 +451,19 @@
         <v>S723E</v>
       </c>
       <c r="B2" t="str">
-        <v>test</v>
+        <v>ncie</v>
       </c>
       <c r="C2" t="str">
-        <v>95,62</v>
+        <v>97,28</v>
       </c>
       <c r="D2" t="str">
-        <v>88,06</v>
+        <v>91,77</v>
       </c>
       <c r="E2" t="str">
-        <v>99,92</v>
+        <v>99,94</v>
       </c>
       <c r="F2" t="str">
-        <v>99,98</v>
+        <v>99,93</v>
       </c>
       <c r="G2" t="str">
         <v>0,00</v>
@@ -481,7 +481,7 @@
         <v>0,10</v>
       </c>
       <c r="L2" t="str">
-        <v>-37,30</v>
+        <v>-4,70</v>
       </c>
       <c r="M2" t="str">
         <v>-0,01</v>
@@ -492,19 +492,19 @@
         <v>EBBL</v>
       </c>
       <c r="B3" t="str">
-        <v>test</v>
+        <v>ncie</v>
       </c>
       <c r="C3" t="str">
-        <v>-</v>
+        <v>95,37</v>
       </c>
       <c r="D3" t="str">
-        <v>-</v>
+        <v>94,87</v>
       </c>
       <c r="E3" t="str">
-        <v>0,00</v>
+        <v>99,91</v>
       </c>
       <c r="F3" t="str">
-        <v>0,00</v>
+        <v>99,95</v>
       </c>
       <c r="G3" t="str">
         <v>0,00</v>
@@ -519,13 +519,13 @@
         <v>0,00</v>
       </c>
       <c r="K3" t="str">
-        <v>0,00</v>
+        <v>0,02</v>
       </c>
       <c r="L3" t="str">
-        <v>0,00</v>
+        <v>-21,40</v>
       </c>
       <c r="M3" t="str">
-        <v>0,00</v>
+        <v>0,01</v>
       </c>
     </row>
     <row r="4">
@@ -533,40 +533,40 @@
         <v>GEEK</v>
       </c>
       <c r="B4" t="str">
-        <v>test</v>
+        <v>ncie</v>
       </c>
       <c r="C4" t="str">
-        <v>95,28</v>
+        <v>96,45</v>
       </c>
       <c r="D4" t="str">
-        <v>78,21</v>
+        <v>84,26</v>
       </c>
       <c r="E4" t="str">
-        <v>99,83</v>
+        <v>99,06</v>
       </c>
       <c r="F4" t="str">
-        <v>99,08</v>
+        <v>99,59</v>
       </c>
       <c r="G4" t="str">
-        <v>0,00</v>
+        <v>0,01</v>
       </c>
       <c r="H4" t="str">
         <v>0,00</v>
       </c>
       <c r="I4" t="str">
-        <v>0,00</v>
+        <v>0,01</v>
       </c>
       <c r="J4" t="str">
         <v>0,00</v>
       </c>
       <c r="K4" t="str">
-        <v>1,07</v>
+        <v>0,66</v>
       </c>
       <c r="L4" t="str">
-        <v>-51,00</v>
+        <v>45,90</v>
       </c>
       <c r="M4" t="str">
-        <v>-0,01</v>
+        <v>-0,02</v>
       </c>
     </row>
     <row r="5">
@@ -574,19 +574,19 @@
         <v>EBFS</v>
       </c>
       <c r="B5" t="str">
-        <v>test</v>
+        <v>ncie</v>
       </c>
       <c r="C5" t="str">
-        <v>93,21</v>
+        <v>94,27</v>
       </c>
       <c r="D5" t="str">
-        <v>92,26</v>
+        <v>95,74</v>
       </c>
       <c r="E5" t="str">
-        <v>99,90</v>
+        <v>99,91</v>
       </c>
       <c r="F5" t="str">
-        <v>99,89</v>
+        <v>99,91</v>
       </c>
       <c r="G5" t="str">
         <v>0,00</v>
@@ -604,10 +604,10 @@
         <v>0,00</v>
       </c>
       <c r="L5" t="str">
-        <v>-47,90</v>
+        <v>-39,70</v>
       </c>
       <c r="M5" t="str">
-        <v>0,04</v>
+        <v>0,03</v>
       </c>
     </row>
     <row r="6">
@@ -615,13 +615,13 @@
         <v>EBSH</v>
       </c>
       <c r="B6" t="str">
-        <v>test</v>
+        <v>ncie</v>
       </c>
       <c r="C6" t="str">
         <v/>
       </c>
       <c r="D6" t="str">
-        <v>82,54</v>
+        <v>83,96</v>
       </c>
       <c r="E6" t="str">
         <v/>
@@ -645,7 +645,7 @@
         <v/>
       </c>
       <c r="L6" t="str">
-        <v>-72,10</v>
+        <v>-59,10</v>
       </c>
       <c r="M6" t="str">
         <v>0,12</v>
@@ -656,13 +656,13 @@
         <v>EBBE</v>
       </c>
       <c r="B7" t="str">
-        <v>test</v>
+        <v>ncie</v>
       </c>
       <c r="C7" t="str">
         <v/>
       </c>
       <c r="D7" t="str">
-        <v>84,07</v>
+        <v>88,27</v>
       </c>
       <c r="E7" t="str">
         <v/>
@@ -686,10 +686,10 @@
         <v/>
       </c>
       <c r="L7" t="str">
-        <v>5,80</v>
+        <v>44,60</v>
       </c>
       <c r="M7" t="str">
-        <v>0,01</v>
+        <v>-0,00</v>
       </c>
     </row>
     <row r="8">
@@ -697,7 +697,7 @@
         <v>GEMB</v>
       </c>
       <c r="B8" t="str">
-        <v>test</v>
+        <v>ncie</v>
       </c>
       <c r="C8" t="str">
         <v/>
@@ -741,7 +741,7 @@
         <v>EBEZ</v>
       </c>
       <c r="B9" t="str">
-        <v>test</v>
+        <v>ncie</v>
       </c>
       <c r="C9" t="str">
         <v/>

--- a/rdqe.xlsx
+++ b/rdqe.xlsx
@@ -451,19 +451,19 @@
         <v>S723E</v>
       </c>
       <c r="B2" t="str">
-        <v>ncie</v>
+        <v>01/01/2002</v>
       </c>
       <c r="C2" t="str">
-        <v>97,28</v>
+        <v>95,22</v>
       </c>
       <c r="D2" t="str">
-        <v>91,77</v>
+        <v>85,70</v>
       </c>
       <c r="E2" t="str">
-        <v>99,94</v>
+        <v>99,88</v>
       </c>
       <c r="F2" t="str">
-        <v>99,93</v>
+        <v>99,96</v>
       </c>
       <c r="G2" t="str">
         <v>0,00</v>
@@ -478,10 +478,10 @@
         <v>0,00</v>
       </c>
       <c r="K2" t="str">
-        <v>0,10</v>
+        <v>0,02</v>
       </c>
       <c r="L2" t="str">
-        <v>-4,70</v>
+        <v>-21,10</v>
       </c>
       <c r="M2" t="str">
         <v>-0,01</v>
@@ -492,28 +492,28 @@
         <v>EBBL</v>
       </c>
       <c r="B3" t="str">
-        <v>ncie</v>
+        <v>01/01/2002</v>
       </c>
       <c r="C3" t="str">
-        <v>95,37</v>
+        <v>87,61</v>
       </c>
       <c r="D3" t="str">
-        <v>94,87</v>
+        <v>77,40</v>
       </c>
       <c r="E3" t="str">
-        <v>99,91</v>
+        <v>99,40</v>
       </c>
       <c r="F3" t="str">
-        <v>99,95</v>
+        <v>99,96</v>
       </c>
       <c r="G3" t="str">
-        <v>0,00</v>
+        <v>0,03</v>
       </c>
       <c r="H3" t="str">
         <v>0,00</v>
       </c>
       <c r="I3" t="str">
-        <v>0,00</v>
+        <v>0,03</v>
       </c>
       <c r="J3" t="str">
         <v>0,00</v>
@@ -522,7 +522,7 @@
         <v>0,02</v>
       </c>
       <c r="L3" t="str">
-        <v>-21,40</v>
+        <v>-41,50</v>
       </c>
       <c r="M3" t="str">
         <v>0,01</v>
@@ -533,40 +533,40 @@
         <v>GEEK</v>
       </c>
       <c r="B4" t="str">
-        <v>ncie</v>
+        <v>01/01/2002</v>
       </c>
       <c r="C4" t="str">
-        <v>96,45</v>
+        <v>96,94</v>
       </c>
       <c r="D4" t="str">
-        <v>84,26</v>
+        <v>83,93</v>
       </c>
       <c r="E4" t="str">
-        <v>99,06</v>
+        <v>99,24</v>
       </c>
       <c r="F4" t="str">
-        <v>99,59</v>
+        <v>99,15</v>
       </c>
       <c r="G4" t="str">
-        <v>0,01</v>
+        <v>0,00</v>
       </c>
       <c r="H4" t="str">
         <v>0,00</v>
       </c>
       <c r="I4" t="str">
-        <v>0,01</v>
+        <v>0,00</v>
       </c>
       <c r="J4" t="str">
         <v>0,00</v>
       </c>
       <c r="K4" t="str">
-        <v>0,66</v>
+        <v>0,61</v>
       </c>
       <c r="L4" t="str">
-        <v>45,90</v>
+        <v>-75,70</v>
       </c>
       <c r="M4" t="str">
-        <v>-0,02</v>
+        <v>-0,01</v>
       </c>
     </row>
     <row r="5">
@@ -574,19 +574,19 @@
         <v>EBFS</v>
       </c>
       <c r="B5" t="str">
-        <v>ncie</v>
+        <v>01/01/2002</v>
       </c>
       <c r="C5" t="str">
-        <v>94,27</v>
+        <v>89,49</v>
       </c>
       <c r="D5" t="str">
-        <v>95,74</v>
+        <v>83,37</v>
       </c>
       <c r="E5" t="str">
-        <v>99,91</v>
+        <v>99,88</v>
       </c>
       <c r="F5" t="str">
-        <v>99,91</v>
+        <v>99,86</v>
       </c>
       <c r="G5" t="str">
         <v>0,00</v>
@@ -604,7 +604,7 @@
         <v>0,00</v>
       </c>
       <c r="L5" t="str">
-        <v>-39,70</v>
+        <v>-47,20</v>
       </c>
       <c r="M5" t="str">
         <v>0,03</v>
@@ -615,13 +615,13 @@
         <v>EBSH</v>
       </c>
       <c r="B6" t="str">
-        <v>ncie</v>
+        <v>01/01/2002</v>
       </c>
       <c r="C6" t="str">
         <v/>
       </c>
       <c r="D6" t="str">
-        <v>83,96</v>
+        <v>71,82</v>
       </c>
       <c r="E6" t="str">
         <v/>
@@ -645,10 +645,10 @@
         <v/>
       </c>
       <c r="L6" t="str">
-        <v>-59,10</v>
+        <v>-85,70</v>
       </c>
       <c r="M6" t="str">
-        <v>0,12</v>
+        <v>0,13</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>EBBE</v>
       </c>
       <c r="B7" t="str">
-        <v>ncie</v>
+        <v>01/01/2002</v>
       </c>
       <c r="C7" t="str">
         <v/>
       </c>
       <c r="D7" t="str">
-        <v>88,27</v>
+        <v>57,31</v>
       </c>
       <c r="E7" t="str">
         <v/>
@@ -686,10 +686,10 @@
         <v/>
       </c>
       <c r="L7" t="str">
-        <v>44,60</v>
+        <v>17,10</v>
       </c>
       <c r="M7" t="str">
-        <v>-0,00</v>
+        <v>0,02</v>
       </c>
     </row>
     <row r="8">
@@ -697,7 +697,7 @@
         <v>GEMB</v>
       </c>
       <c r="B8" t="str">
-        <v>ncie</v>
+        <v>01/01/2002</v>
       </c>
       <c r="C8" t="str">
         <v/>
@@ -741,7 +741,7 @@
         <v>EBEZ</v>
       </c>
       <c r="B9" t="str">
-        <v>ncie</v>
+        <v>01/01/2002</v>
       </c>
       <c r="C9" t="str">
         <v/>
